--- a/biology/Médecine/Oxyde_de_fer_(maladie_professionnelle)/Oxyde_de_fer_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Oxyde_de_fer_(maladie_professionnelle)/Oxyde_de_fer_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une affection pulmonaire consécutive à l'inhalation de poussières de fer peut être reconnue comme maladie professionnelle en France et dans quelques autres pays.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
